--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_12.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_12.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_9</t>
+          <t>model_1_12_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9802671479878085</v>
+        <v>0.8965663540796458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7211398300574485</v>
+        <v>0.7281747739291726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7215579386168507</v>
+        <v>0.6247846665426378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9805570946761156</v>
+        <v>0.8065473525150578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08281455859345414</v>
+        <v>0.434088885140046</v>
       </c>
       <c r="G2" t="n">
-        <v>1.864739240438857</v>
+        <v>1.8176965383757</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9959711085691723</v>
+        <v>1.342123491541916</v>
       </c>
       <c r="I2" t="n">
-        <v>0.14323090652607</v>
+        <v>1.185894455518653</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3109379806983463</v>
+        <v>2.485444896307288</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2877751875917278</v>
+        <v>0.6588542214633264</v>
       </c>
       <c r="L2" t="n">
-        <v>1.011550937763234</v>
+        <v>0.6453703568444999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3000263731042695</v>
+        <v>0.6869030096872784</v>
       </c>
       <c r="N2" t="n">
-        <v>134.9823028092471</v>
+        <v>35.66901192276231</v>
       </c>
       <c r="O2" t="n">
-        <v>214.2092314256802</v>
+        <v>56.38990094552172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_8</t>
+          <t>model_1_12_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9801870197428298</v>
+        <v>0.8910200862180183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7207074442689224</v>
+        <v>0.7278365549019731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7222067197408319</v>
+        <v>0.615193615126185</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9810761135575401</v>
+        <v>0.7806110678884562</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08315083969639209</v>
+        <v>0.457365384883619</v>
       </c>
       <c r="G3" t="n">
-        <v>1.867630606197685</v>
+        <v>1.819958210567939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9936504561071824</v>
+        <v>1.376430126337453</v>
       </c>
       <c r="I3" t="n">
-        <v>0.139407427285071</v>
+        <v>1.34488786571654</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3130315530097941</v>
+        <v>2.665199180470955</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2883588731015435</v>
+        <v>0.6762879452449371</v>
       </c>
       <c r="L3" t="n">
-        <v>1.011597842101758</v>
+        <v>0.62635458131892</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3006349073146337</v>
+        <v>0.7050789231830555</v>
       </c>
       <c r="N3" t="n">
-        <v>134.9741979496413</v>
+        <v>35.56454535651078</v>
       </c>
       <c r="O3" t="n">
-        <v>214.2011265660743</v>
+        <v>56.28543437927019</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9800884265490052</v>
+        <v>0.9018134579967084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7202603359156228</v>
+        <v>0.7274475559194153</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7228405743714312</v>
+        <v>0.6352762144548867</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9815577452258036</v>
+        <v>0.8332941760983723</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08356461423956828</v>
+        <v>0.4120679124739025</v>
       </c>
       <c r="G4" t="n">
-        <v>1.870620421814943</v>
+        <v>1.822559448555478</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9913831948465318</v>
+        <v>1.304595832994702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1358593700730505</v>
+        <v>1.021932316966597</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3151510214480293</v>
+        <v>2.252069951861163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2890754473136179</v>
+        <v>0.6419251611160779</v>
       </c>
       <c r="L4" t="n">
-        <v>1.011655555190826</v>
+        <v>0.663360427417286</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3013819875744291</v>
+        <v>0.6692532441930614</v>
       </c>
       <c r="N4" t="n">
-        <v>134.9642702462876</v>
+        <v>35.77313421422976</v>
       </c>
       <c r="O4" t="n">
-        <v>214.1911988627206</v>
+        <v>56.49402323698917</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9799708161297892</v>
+        <v>0.9053405837988926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7197981774938141</v>
+        <v>0.7261068937051921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7234592568474345</v>
+        <v>0.6424447042345133</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9820006584672533</v>
+        <v>0.8562537606671743</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08405820000949889</v>
+        <v>0.3972653200138266</v>
       </c>
       <c r="G5" t="n">
-        <v>1.873710877309622</v>
+        <v>1.831524462955171</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9891702035031393</v>
+        <v>1.278954560705897</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1325965416002244</v>
+        <v>0.8811865355304793</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3172949143222118</v>
+        <v>1.993261781898735</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2899279220935764</v>
+        <v>0.630289869832783</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01172440031427</v>
+        <v>0.6754534301676318</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3022707539706365</v>
+        <v>0.6571226144714634</v>
       </c>
       <c r="N5" t="n">
-        <v>134.9524917255953</v>
+        <v>35.84630181827764</v>
       </c>
       <c r="O5" t="n">
-        <v>214.1794203420284</v>
+        <v>56.56719084103705</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9798336030603916</v>
+        <v>0.905667938144698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7193204506974727</v>
+        <v>0.7258798031736748</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7240618430882486</v>
+        <v>0.6429995132362012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9824035387068007</v>
+        <v>0.8585990619632931</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08463405390879317</v>
+        <v>0.3958914838529523</v>
       </c>
       <c r="G6" t="n">
-        <v>1.876905438596487</v>
+        <v>1.833043018385083</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9870147874597048</v>
+        <v>1.276970041076533</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1296286260047635</v>
+        <v>0.8668094782001864</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3194595329153009</v>
+        <v>1.964845975582638</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2909193254302525</v>
+        <v>0.6291990812556486</v>
       </c>
       <c r="L6" t="n">
-        <v>1.011804720159771</v>
+        <v>0.676575787924679</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3033043633998427</v>
+        <v>0.6559853887663567</v>
       </c>
       <c r="N6" t="n">
-        <v>134.9388371297802</v>
+        <v>35.85323027191057</v>
       </c>
       <c r="O6" t="n">
-        <v>214.1657657462132</v>
+        <v>56.57411929466998</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9796761719319821</v>
+        <v>0.9059407422208614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7188268808688284</v>
+        <v>0.725575799994264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7246472768413774</v>
+        <v>0.6435438072315429</v>
       </c>
       <c r="E7" t="n">
-        <v>0.982764877671106</v>
+        <v>0.8606094957405444</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0852947586766615</v>
+        <v>0.3947465835042341</v>
       </c>
       <c r="G7" t="n">
-        <v>1.880205942313312</v>
+        <v>1.835075889045609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9849207248701628</v>
+        <v>1.275023133015176</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1269667343502758</v>
+        <v>0.8544852102171632</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3220189588014709</v>
+        <v>1.937975266643391</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2920526642177084</v>
+        <v>0.6282886148134742</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011896874966645</v>
+        <v>0.6775111161858105</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3044859507658153</v>
+        <v>0.6550361618828136</v>
       </c>
       <c r="N7" t="n">
-        <v>134.923284544265</v>
+        <v>35.8590225614359</v>
       </c>
       <c r="O7" t="n">
-        <v>214.150213160698</v>
+        <v>56.57991158419531</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9794978255166993</v>
+        <v>0.9061386563954192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7183169871304577</v>
+        <v>0.7243639983318649</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7252152040337096</v>
+        <v>0.6456083403597703</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9830831998664393</v>
+        <v>0.871550373756063</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08604324042928646</v>
+        <v>0.3939159800519165</v>
       </c>
       <c r="G8" t="n">
-        <v>1.883615604089641</v>
+        <v>1.843179212341905</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9828892822335014</v>
+        <v>1.267638417724015</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1246217362213727</v>
+        <v>0.7874159467783191</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3250127977511955</v>
+        <v>1.726536466019105</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2933312810275891</v>
+        <v>0.6276272620368849</v>
       </c>
       <c r="L8" t="n">
-        <v>1.012001272868274</v>
+        <v>0.6781896790700088</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3058190009403944</v>
+        <v>0.6543466539493359</v>
       </c>
       <c r="N8" t="n">
-        <v>134.9058106267973</v>
+        <v>35.86323528204823</v>
       </c>
       <c r="O8" t="n">
-        <v>214.1327392432303</v>
+        <v>56.58412430480764</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9792980374345763</v>
+        <v>0.9032354870764555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7177903512220444</v>
+        <v>0.7177262802048182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7257647252801634</v>
+        <v>0.6440186842520227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9833571970710766</v>
+        <v>0.8697920608263409</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08688170827078347</v>
+        <v>0.4060999606302688</v>
       </c>
       <c r="G9" t="n">
-        <v>1.887137220834136</v>
+        <v>1.887565664021348</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9809236765980085</v>
+        <v>1.273324525447871</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1226032689526151</v>
+        <v>0.7981946752244444</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3282471090780834</v>
+        <v>1.507143258536391</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2947570326061508</v>
+        <v>0.6372597277643307</v>
       </c>
       <c r="L9" t="n">
-        <v>1.012118221989516</v>
+        <v>0.6682359556907047</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3073054497153681</v>
+        <v>0.6643891936847519</v>
       </c>
       <c r="N9" t="n">
-        <v>134.8864155211458</v>
+        <v>35.80231188247159</v>
       </c>
       <c r="O9" t="n">
-        <v>214.1133441375788</v>
+        <v>56.52320090523099</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9790760732175595</v>
+        <v>0.8994795049071114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7172465376783723</v>
+        <v>0.7116617065816371</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7262952279666742</v>
+        <v>0.6375986748822733</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9835853543353548</v>
+        <v>0.8666096246955943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0878132446064554</v>
+        <v>0.4218630143057813</v>
       </c>
       <c r="G10" t="n">
-        <v>1.890773704504703</v>
+        <v>1.928119495764353</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9790260992486725</v>
+        <v>1.296288526709933</v>
       </c>
       <c r="I10" t="n">
-        <v>0.120922492790375</v>
+        <v>0.8177034977273173</v>
       </c>
       <c r="J10" t="n">
-        <v>0.331516828864158</v>
+        <v>1.35532521961073</v>
       </c>
       <c r="K10" t="n">
-        <v>0.296332996148683</v>
+        <v>0.6495098261810834</v>
       </c>
       <c r="L10" t="n">
-        <v>1.012248152262892</v>
+        <v>0.6553583025386676</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3089485052886002</v>
+        <v>0.6771608041523055</v>
       </c>
       <c r="N10" t="n">
-        <v>134.8650858799718</v>
+        <v>35.72614925658675</v>
       </c>
       <c r="O10" t="n">
-        <v>214.0920144964049</v>
+        <v>56.44703827934616</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9788313674495506</v>
+        <v>0.892686585680617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7166851444134341</v>
+        <v>0.6969316226079941</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7268056015035537</v>
+        <v>0.6273666712142014</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9837659700774473</v>
+        <v>0.8515335103362167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08884022236671074</v>
+        <v>0.450371443140881</v>
       </c>
       <c r="G11" t="n">
-        <v>1.894527743852323</v>
+        <v>2.026619635121904</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9772005227004127</v>
+        <v>1.332887810544966</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1195919428523979</v>
+        <v>0.9101223953851679</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3348142408996182</v>
+        <v>1.299949109513725</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2980607695868592</v>
+        <v>0.6710971935128927</v>
       </c>
       <c r="L11" t="n">
-        <v>1.012391394663678</v>
+        <v>0.6320682937621154</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3107498336190235</v>
+        <v>0.6996671904034407</v>
       </c>
       <c r="N11" t="n">
-        <v>134.8418315539138</v>
+        <v>35.5953652149903</v>
       </c>
       <c r="O11" t="n">
-        <v>214.0687601703468</v>
+        <v>56.31625423774971</v>
       </c>
     </row>
   </sheetData>
